--- a/AC3D_Hybrid/hybrid_ac3d/SH3D_resluts/sh3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/SH3D_resluts/sh3d_relL2_tables.xlsx
@@ -225,19 +225,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.11</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.26000000000000001</v>
       </c>
       <c r="E2" s="0">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="0">
-        <v>0.19</v>
+        <v>0.23999999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>0.20999999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -254,13 +254,13 @@
         <v>0.16</v>
       </c>
       <c r="E3" s="0">
-        <v>0.16</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>0.22</v>
+        <v>0.23999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -271,19 +271,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F4" s="0">
         <v>0.059999999999999998</v>
       </c>
       <c r="G4" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -294,19 +294,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E5" s="0">
         <v>0.059999999999999998</v>
       </c>
       <c r="F5" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="G5" s="0">
         <v>0.070000000000000007</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -317,19 +317,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E6" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="F6" s="0">
         <v>0.070000000000000007</v>
       </c>
-      <c r="F6" s="0">
-        <v>0.080000000000000002</v>
-      </c>
       <c r="G6" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="7">
@@ -340,13 +340,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E7" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="F7" s="0">
         <v>0.089999999999999997</v>
@@ -404,13 +404,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D2" s="0">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="E2" s="0">
         <v>0.10000000000000001</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.11</v>
       </c>
       <c r="F2" s="0">
         <v>0.11</v>
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D3" s="0">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="F3" s="0">
         <v>0.10000000000000001</v>
       </c>
-      <c r="E3" s="0">
-        <v>0.11</v>
-      </c>
-      <c r="F3" s="0">
+      <c r="G3" s="0">
         <v>0.12</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         <v>0.02</v>
       </c>
       <c r="D4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F4" s="0">
         <v>0.050000000000000003</v>
@@ -502,10 +502,10 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G6" s="0">
         <v>0.070000000000000007</v>
@@ -519,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E7" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="F7" s="0">
         <v>0.089999999999999997</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D2" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E2" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F2" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -609,7 +609,7 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E3" s="0">
         <v>0.059999999999999998</v>
@@ -618,7 +618,7 @@
         <v>0.070000000000000007</v>
       </c>
       <c r="G3" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -681,10 +681,10 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="E6" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="F6" s="0">
         <v>0.050000000000000003</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.059999999999999998</v>
       </c>
       <c r="G6" s="0">
         <v>0.059999999999999998</v>
@@ -698,13 +698,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E7" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="F7" s="0">
         <v>0.089999999999999997</v>

--- a/AC3D_Hybrid/hybrid_ac3d/SH3D_resluts/sh3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/SH3D_resluts/sh3d_relL2_tables.xlsx
@@ -225,16 +225,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="D2" s="0">
-        <v>0.26000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E2" s="0">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F2" s="0">
-        <v>0.23999999999999999</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="G2" s="0">
         <v>0.25</v>
@@ -248,19 +248,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="0">
-        <v>0.16</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="F3" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.20999999999999999</v>
       </c>
       <c r="G3" s="0">
-        <v>0.23999999999999999</v>
+        <v>0.26000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -271,19 +271,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="5">
@@ -294,19 +294,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G5" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -317,19 +317,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -352,7 +352,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="G7" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -404,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D2" s="0">
         <v>0.080000000000000002</v>
@@ -430,16 +430,16 @@
         <v>0.059999999999999998</v>
       </c>
       <c r="D3" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="E3" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G3" s="0">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -450,16 +450,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G4" s="0">
         <v>0.059999999999999998</v>
@@ -476,16 +476,16 @@
         <v>0.02</v>
       </c>
       <c r="D5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F5" s="0">
         <v>0.059999999999999998</v>
       </c>
       <c r="G5" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -499,16 +499,16 @@
         <v>0.02</v>
       </c>
       <c r="D6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E6" s="0">
         <v>0.059999999999999998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="G7" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="E2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="F2" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="G2" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -609,7 +609,7 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E3" s="0">
         <v>0.059999999999999998</v>
@@ -641,7 +641,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -664,7 +664,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="G5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="6">
@@ -687,7 +687,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="G6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="7">
@@ -710,7 +710,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="G7" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/AC3D_Hybrid/hybrid_ac3d/SH3D_resluts/sh3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/SH3D_resluts/sh3d_relL2_tables.xlsx
@@ -225,19 +225,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D2" s="0">
-        <v>0.22</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="E2" s="0">
-        <v>0.22</v>
+        <v>0.20999999999999999</v>
       </c>
       <c r="F2" s="0">
         <v>0.23000000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>0.25</v>
+        <v>0.23999999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -248,10 +248,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D3" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="0">
         <v>0.17999999999999999</v>
@@ -260,7 +260,7 @@
         <v>0.20999999999999999</v>
       </c>
       <c r="G3" s="0">
-        <v>0.26000000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -277,13 +277,13 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F4" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G4" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -297,7 +297,7 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E5" s="0">
         <v>0.070000000000000007</v>
@@ -306,7 +306,7 @@
         <v>0.080000000000000002</v>
       </c>
       <c r="G5" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -320,13 +320,13 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="F6" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="G6" s="0">
         <v>0.089999999999999997</v>
@@ -343,16 +343,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="E7" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -404,19 +404,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="D2" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F2" s="0">
-        <v>0.11</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>0.12</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="D3" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F3" s="0">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>0.13</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -450,19 +450,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="E4" s="0">
         <v>0.050000000000000003</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.059999999999999998</v>
       </c>
       <c r="F4" s="0">
         <v>0.059999999999999998</v>
       </c>
       <c r="G4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="5">
@@ -476,16 +476,16 @@
         <v>0.02</v>
       </c>
       <c r="D5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E5" s="0">
         <v>0.059999999999999998</v>
       </c>
       <c r="F5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="6">
@@ -502,13 +502,13 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="E6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -522,16 +522,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="E7" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D2" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="E2" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="F2" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.16</v>
       </c>
       <c r="G2" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.17999999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -609,16 +609,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="F3" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="G3" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +641,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="5">
@@ -655,7 +655,7 @@
         <v>0.01</v>
       </c>
       <c r="D5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="0">
         <v>0.040000000000000001</v>
@@ -664,7 +664,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="G5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -681,13 +681,13 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="E6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="E7" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G7" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
